--- a/2024-05_sentiment_hoofdlijnenakkoord/2024-05_sentiment_hoofdlijnenakkoord_data_import.xlsx
+++ b/2024-05_sentiment_hoofdlijnenakkoord/2024-05_sentiment_hoofdlijnenakkoord_data_import.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Willem-Jelle/Documents/GitHub/Playground/2024-05_sentiment_hoofdlijnenakkoord/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC5F0D9-A620-1943-8230-9882B8DA9BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C48BFC7-72AD-954E-8E17-200033FBF554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="39760" windowHeight="27640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16500" yWindow="2620" windowWidth="39760" windowHeight="27640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$139</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -876,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
